--- a/database - circanual/percentage offspring/BW-Dam-percentage of offspring by parent birthmonth.xlsx
+++ b/database - circanual/percentage offspring/BW-Dam-percentage of offspring by parent birthmonth.xlsx
@@ -6218,40 +6218,40 @@
         <v>4</v>
       </c>
       <c r="B137">
-        <v>4.761904761904762</v>
+        <v>4.807692307692308</v>
       </c>
       <c r="C137">
-        <v>1.904761904761905</v>
+        <v>1.923076923076923</v>
       </c>
       <c r="D137">
-        <v>4.761904761904762</v>
+        <v>4.807692307692308</v>
       </c>
       <c r="E137">
-        <v>4.761904761904762</v>
+        <v>4.807692307692308</v>
       </c>
       <c r="F137">
-        <v>7.61904761904762</v>
+        <v>6.730769230769231</v>
       </c>
       <c r="G137">
-        <v>9.523809523809524</v>
+        <v>9.615384615384617</v>
       </c>
       <c r="H137">
-        <v>6.666666666666667</v>
+        <v>6.730769230769231</v>
       </c>
       <c r="I137">
-        <v>12.38095238095238</v>
+        <v>12.5</v>
       </c>
       <c r="J137">
-        <v>18.09523809523809</v>
+        <v>18.26923076923077</v>
       </c>
       <c r="K137">
-        <v>13.33333333333333</v>
+        <v>13.46153846153846</v>
       </c>
       <c r="L137">
-        <v>8.571428571428571</v>
+        <v>8.653846153846153</v>
       </c>
       <c r="M137">
-        <v>7.61904761904762</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="N137" t="inlineStr">
         <is>
@@ -6445,40 +6445,40 @@
         <v>9</v>
       </c>
       <c r="B142">
-        <v>8.977556109725686</v>
+        <v>9.207161125319693</v>
       </c>
       <c r="C142">
-        <v>3.99002493765586</v>
+        <v>3.324808184143223</v>
       </c>
       <c r="D142">
-        <v>7.481296758104738</v>
+        <v>6.649616368286446</v>
       </c>
       <c r="E142">
-        <v>5.7356608478803</v>
+        <v>5.115089514066496</v>
       </c>
       <c r="F142">
-        <v>9.725685785536159</v>
+        <v>9.974424552429667</v>
       </c>
       <c r="G142">
-        <v>7.98004987531172</v>
+        <v>8.184143222506394</v>
       </c>
       <c r="H142">
-        <v>10.97256857855361</v>
+        <v>11.25319693094629</v>
       </c>
       <c r="I142">
-        <v>11.4713216957606</v>
+        <v>11.76470588235294</v>
       </c>
       <c r="J142">
-        <v>5.7356608478803</v>
+        <v>5.88235294117647</v>
       </c>
       <c r="K142">
-        <v>10.72319201995012</v>
+        <v>10.99744245524297</v>
       </c>
       <c r="L142">
-        <v>7.231920199501247</v>
+        <v>7.41687979539642</v>
       </c>
       <c r="M142">
-        <v>9.975062344139651</v>
+        <v>10.23017902813299</v>
       </c>
       <c r="N142" t="inlineStr">
         <is>
@@ -6491,40 +6491,40 @@
         <v>10</v>
       </c>
       <c r="B143">
-        <v>13.18681318681319</v>
+        <v>12.41830065359477</v>
       </c>
       <c r="C143">
-        <v>12.08791208791209</v>
+        <v>8.496732026143791</v>
       </c>
       <c r="D143">
-        <v>8.241758241758241</v>
+        <v>6.535947712418301</v>
       </c>
       <c r="E143">
-        <v>5.494505494505495</v>
+        <v>3.267973856209151</v>
       </c>
       <c r="F143">
-        <v>6.043956043956044</v>
+        <v>3.92156862745098</v>
       </c>
       <c r="G143">
-        <v>8.241758241758241</v>
+        <v>9.803921568627452</v>
       </c>
       <c r="H143">
-        <v>5.494505494505495</v>
+        <v>6.535947712418301</v>
       </c>
       <c r="I143">
-        <v>1.648351648351648</v>
+        <v>1.96078431372549</v>
       </c>
       <c r="J143">
-        <v>10.43956043956044</v>
+        <v>12.41830065359477</v>
       </c>
       <c r="K143">
-        <v>8.791208791208792</v>
+        <v>10.45751633986928</v>
       </c>
       <c r="L143">
-        <v>11.53846153846154</v>
+        <v>13.72549019607843</v>
       </c>
       <c r="M143">
-        <v>8.791208791208792</v>
+        <v>10.45751633986928</v>
       </c>
       <c r="N143" t="inlineStr">
         <is>
